--- a/ipynbfiles/saved_file.xlsx
+++ b/ipynbfiles/saved_file.xlsx
@@ -82,36 +82,36 @@
     <t>this</t>
   </si>
   <si>
+    <t>push</t>
+  </si>
+  <si>
     <t>here</t>
   </si>
   <si>
-    <t>push</t>
-  </si>
-  <si>
     <t>ct</t>
   </si>
   <si>
     <t>if</t>
   </si>
   <si>
+    <t>no</t>
+  </si>
+  <si>
     <t>all</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>so</t>
   </si>
   <si>
     <t>do</t>
   </si>
   <si>
+    <t>win</t>
+  </si>
+  <si>
     <t>kill</t>
   </si>
   <si>
-    <t>win</t>
-  </si>
-  <si>
     <t>get</t>
   </si>
   <si>
@@ -121,15 +121,15 @@
     <t>our</t>
   </si>
   <si>
+    <t>smoke</t>
+  </si>
+  <si>
+    <t>there</t>
+  </si>
+  <si>
     <t>players</t>
   </si>
   <si>
-    <t>smoke</t>
-  </si>
-  <si>
-    <t>there</t>
-  </si>
-  <si>
     <t>op</t>
   </si>
   <si>
@@ -139,100 +139,112 @@
     <t>go</t>
   </si>
   <si>
+    <t>out</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
     <t>have</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>out</t>
-  </si>
-  <si>
-    <t>your</t>
-  </si>
-  <si>
     <t>can</t>
   </si>
   <si>
+    <t>very</t>
+  </si>
+  <si>
     <t>they</t>
   </si>
   <si>
-    <t>very</t>
-  </si>
-  <si>
     <t>are</t>
   </si>
   <si>
     <t>into</t>
   </si>
   <si>
+    <t>with</t>
+  </si>
+  <si>
     <t>therefore</t>
   </si>
   <si>
-    <t>with</t>
+    <t>we</t>
+  </si>
+  <si>
+    <t>off</t>
   </si>
   <si>
     <t>from</t>
   </si>
   <si>
-    <t>off</t>
-  </si>
-  <si>
     <t>throw</t>
   </si>
   <si>
-    <t>we</t>
+    <t>my</t>
   </si>
   <si>
     <t>flash</t>
   </si>
   <si>
-    <t>my</t>
-  </si>
-  <si>
     <t>window</t>
   </si>
   <si>
+    <t>up</t>
+  </si>
+  <si>
+    <t>by</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
     <t>angle</t>
   </si>
   <si>
-    <t>by</t>
-  </si>
-  <si>
-    <t>lot</t>
-  </si>
-  <si>
     <t>palace</t>
   </si>
   <si>
-    <t>up</t>
+    <t>not</t>
   </si>
   <si>
     <t>just</t>
   </si>
   <si>
-    <t>not</t>
+    <t>under</t>
   </si>
   <si>
     <t>sight</t>
   </si>
   <si>
-    <t>under</t>
+    <t>use</t>
   </si>
   <si>
     <t>but</t>
   </si>
   <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>kills</t>
+  </si>
+  <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>kills</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>use</t>
+    <t>pro</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>then</t>
+  </si>
+  <si>
+    <t>site</t>
   </si>
   <si>
     <t>after</t>
@@ -241,1780 +253,1768 @@
     <t>position</t>
   </si>
   <si>
-    <t>pro</t>
-  </si>
-  <si>
-    <t>site</t>
-  </si>
-  <si>
-    <t>then</t>
-  </si>
-  <si>
-    <t>top</t>
+    <t>low</t>
+  </si>
+  <si>
+    <t>next</t>
+  </si>
+  <si>
+    <t>take</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>it's</t>
+  </si>
+  <si>
+    <t>round</t>
+  </si>
+  <si>
+    <t>trick</t>
+  </si>
+  <si>
+    <t>enemy</t>
+  </si>
+  <si>
+    <t>getting</t>
   </si>
   <si>
     <t>connector</t>
   </si>
   <si>
-    <t>enemy</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>getting</t>
-  </si>
-  <si>
-    <t>it's</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>next</t>
-  </si>
-  <si>
-    <t>round</t>
-  </si>
-  <si>
-    <t>take</t>
-  </si>
-  <si>
-    <t>trick</t>
-  </si>
-  <si>
     <t>act</t>
   </si>
   <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>eco</t>
+  </si>
+  <si>
+    <t>mid</t>
+  </si>
+  <si>
     <t>box</t>
   </si>
   <si>
+    <t>some</t>
+  </si>
+  <si>
+    <t>when</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
     <t>early</t>
   </si>
   <si>
-    <t>eco</t>
-  </si>
-  <si>
-    <t>mid</t>
+    <t>other</t>
+  </si>
+  <si>
+    <t>where</t>
   </si>
   <si>
     <t>molotov</t>
   </si>
   <si>
-    <t>other</t>
-  </si>
-  <si>
     <t>pushing</t>
   </si>
   <si>
-    <t>quick</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>some</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>when</t>
-  </si>
-  <si>
-    <t>where</t>
+    <t>ah</t>
+  </si>
+  <si>
+    <t>has</t>
+  </si>
+  <si>
+    <t>ramp</t>
+  </si>
+  <si>
+    <t>best</t>
   </si>
   <si>
     <t>able</t>
   </si>
   <si>
-    <t>ah</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>jump</t>
   </si>
   <si>
     <t>dude</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
     <t>fast</t>
   </si>
   <si>
-    <t>has</t>
-  </si>
-  <si>
-    <t>jump</t>
-  </si>
-  <si>
-    <t>ramp</t>
-  </si>
-  <si>
     <t>short</t>
   </si>
   <si>
     <t>usually</t>
   </si>
   <si>
+    <t>now</t>
+  </si>
+  <si>
     <t>any</t>
   </si>
   <si>
+    <t>let</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>over</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
     <t>boom</t>
   </si>
   <si>
-    <t>let</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
     <t>market</t>
   </si>
   <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>now</t>
-  </si>
-  <si>
-    <t>over</t>
-  </si>
-  <si>
     <t>t-side</t>
   </si>
   <si>
+    <t>oh</t>
+  </si>
+  <si>
+    <t>tip</t>
+  </si>
+  <si>
+    <t>met</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>slow</t>
+  </si>
+  <si>
+    <t>games</t>
+  </si>
+  <si>
+    <t>spawn</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
     <t>balcony</t>
   </si>
   <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>games</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>met</t>
-  </si>
-  <si>
-    <t>oh</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>slow</t>
-  </si>
-  <si>
-    <t>spawn</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>tip</t>
+    <t>way</t>
+  </si>
+  <si>
+    <t>own</t>
+  </si>
+  <si>
+    <t>what</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>bomb</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>wait</t>
   </si>
   <si>
     <t>also</t>
   </si>
   <si>
-    <t>back</t>
+    <t>seen</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>onto</t>
+  </si>
+  <si>
+    <t>util</t>
   </si>
   <si>
     <t>blind</t>
   </si>
   <si>
-    <t>bomb</t>
+    <t>money</t>
+  </si>
+  <si>
+    <t>thing</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>force</t>
+  </si>
+  <si>
+    <t>jungle</t>
+  </si>
+  <si>
+    <t>slowly</t>
   </si>
   <si>
     <t>change</t>
   </si>
   <si>
+    <t>middle</t>
+  </si>
+  <si>
+    <t>either</t>
+  </si>
+  <si>
+    <t>second</t>
+  </si>
+  <si>
+    <t>looking</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
     <t>complete</t>
   </si>
   <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>either</t>
-  </si>
-  <si>
-    <t>force</t>
-  </si>
-  <si>
-    <t>jungle</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>looking</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>middle</t>
-  </si>
-  <si>
     <t>molasses</t>
   </si>
   <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>onto</t>
-  </si>
-  <si>
-    <t>own</t>
-  </si>
-  <si>
-    <t>second</t>
-  </si>
-  <si>
-    <t>seen</t>
-  </si>
-  <si>
-    <t>slowly</t>
-  </si>
-  <si>
-    <t>thing</t>
-  </si>
-  <si>
-    <t>util</t>
-  </si>
-  <si>
-    <t>wait</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>what</t>
-  </si>
-  <si>
-    <t>would</t>
+    <t>due</t>
+  </si>
+  <si>
+    <t>bro</t>
+  </si>
+  <si>
+    <t>how</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>try</t>
+  </si>
+  <si>
+    <t>guys</t>
+  </si>
+  <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>yeah</t>
+  </si>
+  <si>
+    <t>only</t>
+  </si>
+  <si>
+    <t>most</t>
+  </si>
+  <si>
+    <t>fall</t>
+  </si>
+  <si>
+    <t>i'll</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>these</t>
+  </si>
+  <si>
+    <t>being</t>
+  </si>
+  <si>
+    <t>guard</t>
+  </si>
+  <si>
+    <t>their</t>
+  </si>
+  <si>
+    <t>boxes</t>
+  </si>
+  <si>
+    <t>mirage</t>
+  </si>
+  <si>
+    <t>enough</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>stairs</t>
+  </si>
+  <si>
+    <t>crouch</t>
+  </si>
+  <si>
+    <t>utility</t>
+  </si>
+  <si>
+    <t>counter</t>
+  </si>
+  <si>
+    <t>because</t>
   </si>
   <si>
     <t>another</t>
   </si>
   <si>
-    <t>because</t>
-  </si>
-  <si>
-    <t>being</t>
-  </si>
-  <si>
-    <t>boxes</t>
-  </si>
-  <si>
-    <t>bro</t>
-  </si>
-  <si>
-    <t>come</t>
+    <t>sometimes</t>
   </si>
   <si>
     <t>completely</t>
   </si>
   <si>
-    <t>counter</t>
-  </si>
-  <si>
-    <t>crouch</t>
-  </si>
-  <si>
-    <t>due</t>
-  </si>
-  <si>
-    <t>enough</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>fall</t>
-  </si>
-  <si>
-    <t>guard</t>
-  </si>
-  <si>
-    <t>guys</t>
-  </si>
-  <si>
-    <t>how</t>
-  </si>
-  <si>
-    <t>i'll</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>mirage</t>
-  </si>
-  <si>
-    <t>more</t>
-  </si>
-  <si>
-    <t>most</t>
-  </si>
-  <si>
-    <t>only</t>
-  </si>
-  <si>
-    <t>sometimes</t>
-  </si>
-  <si>
-    <t>stairs</t>
-  </si>
-  <si>
-    <t>their</t>
-  </si>
-  <si>
-    <t>these</t>
-  </si>
-  <si>
-    <t>try</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>utility</t>
-  </si>
-  <si>
-    <t>yeah</t>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>i'm</t>
+  </si>
+  <si>
+    <t>map</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>who</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>man</t>
+  </si>
+  <si>
+    <t>aug</t>
+  </si>
+  <si>
+    <t>tips</t>
+  </si>
+  <si>
+    <t>wall</t>
+  </si>
+  <si>
+    <t>show</t>
+  </si>
+  <si>
+    <t>fact</t>
+  </si>
+  <si>
+    <t>gain</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>both</t>
+  </si>
+  <si>
+    <t>them</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>once</t>
+  </si>
+  <si>
+    <t>catch</t>
+  </si>
+  <si>
+    <t>those</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>won't</t>
+  </si>
+  <si>
+    <t>place</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>it'll</t>
+  </si>
+  <si>
+    <t>cover</t>
   </si>
   <si>
     <t>ain't</t>
   </si>
   <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>using</t>
+  </si>
+  <si>
+    <t>don't</t>
+  </si>
+  <si>
+    <t>plant</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>final</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>yours</t>
+  </si>
+  <si>
+    <t>cross</t>
+  </si>
+  <si>
+    <t>flames</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>having</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>rounds</t>
+  </si>
+  <si>
+    <t>trying</t>
+  </si>
+  <si>
+    <t>that's</t>
+  </si>
+  <si>
+    <t>guides</t>
+  </si>
+  <si>
+    <t>tetris</t>
+  </si>
+  <si>
+    <t>ticket</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>aug</t>
-  </si>
-  <si>
-    <t>both</t>
-  </si>
-  <si>
-    <t>catch</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>cover</t>
-  </si>
-  <si>
-    <t>cross</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>don't</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>fact</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>final</t>
+    <t>winning</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>seconds</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>they're</t>
   </si>
   <si>
     <t>firstly</t>
   </si>
   <si>
-    <t>flames</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>gain</t>
-  </si>
-  <si>
-    <t>got</t>
+    <t>throwing</t>
   </si>
   <si>
     <t>guarantee</t>
   </si>
   <si>
-    <t>guides</t>
-  </si>
-  <si>
-    <t>having</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hold</t>
-  </si>
-  <si>
-    <t>i'm</t>
-  </si>
-  <si>
-    <t>info</t>
-  </si>
-  <si>
-    <t>it'll</t>
-  </si>
-  <si>
-    <t>land</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>man</t>
-  </si>
-  <si>
-    <t>map</t>
-  </si>
-  <si>
     <t>necessary</t>
   </si>
   <si>
-    <t>once</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>place</t>
-  </si>
-  <si>
-    <t>plant</t>
-  </si>
-  <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>range</t>
-  </si>
-  <si>
-    <t>rounds</t>
-  </si>
-  <si>
-    <t>run</t>
-  </si>
-  <si>
-    <t>seconds</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>show</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>sound</t>
-  </si>
-  <si>
-    <t>tetris</t>
-  </si>
-  <si>
-    <t>that's</t>
-  </si>
-  <si>
-    <t>them</t>
-  </si>
-  <si>
-    <t>they're</t>
-  </si>
-  <si>
-    <t>those</t>
-  </si>
-  <si>
-    <t>throwing</t>
-  </si>
-  <si>
-    <t>ticket</t>
-  </si>
-  <si>
-    <t>tips</t>
-  </si>
-  <si>
-    <t>trying</t>
-  </si>
-  <si>
     <t>underpass</t>
   </si>
   <si>
-    <t>using</t>
-  </si>
-  <si>
-    <t>wall</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>who</t>
-  </si>
-  <si>
-    <t>winning</t>
-  </si>
-  <si>
-    <t>won't</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>yours</t>
+    <t>its</t>
+  </si>
+  <si>
+    <t>too</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>smg</t>
+  </si>
+  <si>
+    <t>was</t>
+  </si>
+  <si>
+    <t>van</t>
+  </si>
+  <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>solo</t>
+  </si>
+  <si>
+    <t>soon</t>
+  </si>
+  <si>
+    <t>peak</t>
+  </si>
+  <si>
+    <t>than</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>hole</t>
+  </si>
+  <si>
+    <t>been</t>
+  </si>
+  <si>
+    <t>edge</t>
+  </si>
+  <si>
+    <t>near</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>deep</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>plus</t>
+  </si>
+  <si>
+    <t>such</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
+    <t>turn</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>peek</t>
+  </si>
+  <si>
+    <t>four</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>hide</t>
+  </si>
+  <si>
+    <t>find</t>
+  </si>
+  <si>
+    <t>spot</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>luck</t>
+  </si>
+  <si>
+    <t>video</t>
+  </si>
+  <si>
+    <t>plays</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>which</t>
+  </si>
+  <si>
+    <t>we're</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>favor</t>
+  </si>
+  <si>
+    <t>going</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>rifle</t>
+  </si>
+  <si>
+    <t>style</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>point</t>
+  </si>
+  <si>
+    <t>about</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>stand</t>
+  </si>
+  <si>
+    <t>three</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>break</t>
+  </si>
+  <si>
+    <t>again</t>
+  </si>
+  <si>
+    <t>comes</t>
+  </si>
+  <si>
+    <t>what's</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>you're</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>thrown</t>
+  </si>
+  <si>
+    <t>weapon</t>
+  </si>
+  <si>
+    <t>pushed</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>pillar</t>
+  </si>
+  <si>
+    <t>chance</t>
+  </si>
+  <si>
+    <t>inside</t>
+  </si>
+  <si>
+    <t>lineup</t>
+  </si>
+  <si>
+    <t>tricky</t>
+  </si>
+  <si>
+    <t>vision</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>fridge</t>
+  </si>
+  <si>
+    <t>taking</t>
+  </si>
+  <si>
+    <t>become</t>
+  </si>
+  <si>
+    <t>showing</t>
   </si>
   <si>
     <t>ability</t>
   </si>
   <si>
-    <t>about</t>
-  </si>
-  <si>
-    <t>again</t>
-  </si>
-  <si>
-    <t>always</t>
+    <t>brother</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>percent</t>
+  </si>
+  <si>
+    <t>grenade</t>
+  </si>
+  <si>
+    <t>planted</t>
+  </si>
+  <si>
+    <t>benefit</t>
+  </si>
+  <si>
+    <t>holding</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
+  <si>
+    <t>meeting</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>pre-aim</t>
+  </si>
+  <si>
+    <t>nowhere</t>
+  </si>
+  <si>
+    <t>maximize</t>
+  </si>
+  <si>
+    <t>grinding</t>
+  </si>
+  <si>
+    <t>constant</t>
+  </si>
+  <si>
+    <t>gunfight</t>
+  </si>
+  <si>
+    <t>headshot</t>
+  </si>
+  <si>
+    <t>crosshair</t>
+  </si>
+  <si>
+    <t>placement</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>crouching</t>
+  </si>
+  <si>
+    <t>impossible</t>
   </si>
   <si>
     <t>apartments</t>
   </si>
   <si>
-    <t>area</t>
-  </si>
-  <si>
-    <t>become</t>
-  </si>
-  <si>
-    <t>been</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>benefit</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>break</t>
-  </si>
-  <si>
-    <t>brother</t>
-  </si>
-  <si>
-    <t>chance</t>
-  </si>
-  <si>
-    <t>clear</t>
-  </si>
-  <si>
-    <t>comes</t>
-  </si>
-  <si>
-    <t>constant</t>
-  </si>
-  <si>
-    <t>control</t>
-  </si>
-  <si>
-    <t>crosshair</t>
-  </si>
-  <si>
-    <t>crouching</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>deep</t>
-  </si>
-  <si>
-    <t>done</t>
-  </si>
-  <si>
-    <t>edge</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>favor</t>
-  </si>
-  <si>
-    <t>find</t>
-  </si>
-  <si>
-    <t>fire</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>four</t>
-  </si>
-  <si>
-    <t>fridge</t>
-  </si>
-  <si>
-    <t>going</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>grenade</t>
-  </si>
-  <si>
-    <t>grinding</t>
-  </si>
-  <si>
-    <t>gunfight</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>headshot</t>
-  </si>
-  <si>
-    <t>hide</t>
-  </si>
-  <si>
-    <t>holding</t>
-  </si>
-  <si>
-    <t>hole</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>impossible</t>
-  </si>
-  <si>
     <t>information</t>
   </si>
   <si>
-    <t>inside</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>its</t>
-  </si>
-  <si>
-    <t>lineup</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>luck</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>maximize</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>meeting</t>
-  </si>
-  <si>
-    <t>near</t>
-  </si>
-  <si>
-    <t>nowhere</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>order</t>
-  </si>
-  <si>
-    <t>peak</t>
-  </si>
-  <si>
-    <t>peek</t>
-  </si>
-  <si>
-    <t>percent</t>
-  </si>
-  <si>
-    <t>pillar</t>
-  </si>
-  <si>
-    <t>placement</t>
-  </si>
-  <si>
-    <t>planted</t>
-  </si>
-  <si>
-    <t>plays</t>
-  </si>
-  <si>
-    <t>plus</t>
-  </si>
-  <si>
-    <t>point</t>
-  </si>
-  <si>
-    <t>pre-aim</t>
-  </si>
-  <si>
     <t>proguides.com</t>
   </si>
   <si>
-    <t>pushed</t>
-  </si>
-  <si>
-    <t>rate</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>rifle</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>showing</t>
-  </si>
-  <si>
-    <t>smg</t>
-  </si>
-  <si>
-    <t>solo</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>soon</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>spot</t>
-  </si>
-  <si>
-    <t>stand</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>style</t>
-  </si>
-  <si>
-    <t>such</t>
-  </si>
-  <si>
-    <t>taking</t>
-  </si>
-  <si>
-    <t>than</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>three</t>
-  </si>
-  <si>
-    <t>thrown</t>
-  </si>
-  <si>
-    <t>too</t>
-  </si>
-  <si>
-    <t>tricky</t>
-  </si>
-  <si>
-    <t>turn</t>
-  </si>
-  <si>
-    <t>van</t>
-  </si>
-  <si>
-    <t>video</t>
-  </si>
-  <si>
-    <t>vision</t>
-  </si>
-  <si>
-    <t>was</t>
-  </si>
-  <si>
-    <t>we're</t>
-  </si>
-  <si>
-    <t>weapon</t>
-  </si>
-  <si>
-    <t>what's</t>
-  </si>
-  <si>
-    <t>which</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>you're</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
+    <t>pg</t>
+  </si>
+  <si>
+    <t>cs</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>ask</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>1v1</t>
+  </si>
+  <si>
+    <t>1v2</t>
+  </si>
+  <si>
+    <t>sir</t>
+  </si>
+  <si>
+    <t>hit</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>sat</t>
+  </si>
+  <si>
+    <t>gap</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>ooh</t>
+  </si>
+  <si>
+    <t>mom</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>cody</t>
+  </si>
+  <si>
+    <t>said</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>pugs</t>
+  </si>
+  <si>
+    <t>sale</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>odds</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>gwop</t>
+  </si>
+  <si>
+    <t>same</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>rush</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>flip</t>
+  </si>
+  <si>
+    <t>down</t>
+  </si>
+  <si>
+    <t>flat</t>
+  </si>
+  <si>
+    <t>held</t>
+  </si>
+  <si>
+    <t>ct's</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>gone</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>five</t>
+  </si>
+  <si>
+    <t>room</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>door</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>puts</t>
+  </si>
+  <si>
+    <t>idea</t>
+  </si>
+  <si>
+    <t>away</t>
+  </si>
+  <si>
+    <t>gets</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>whip</t>
+  </si>
+  <si>
+    <t>song</t>
+  </si>
+  <si>
+    <t>brah</t>
+  </si>
+  <si>
+    <t>mind</t>
+  </si>
+  <si>
+    <t>beat</t>
+  </si>
+  <si>
+    <t>eyes</t>
+  </si>
+  <si>
+    <t>maps</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>let's</t>
+  </si>
+  <si>
+    <t>can't</t>
+  </si>
+  <si>
+    <t>grads</t>
+  </si>
+  <si>
+    <t>takes</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>heard</t>
+  </si>
+  <si>
+    <t>peasy</t>
+  </si>
+  <si>
+    <t>lemon</t>
+  </si>
+  <si>
+    <t>slash</t>
+  </si>
+  <si>
+    <t>major</t>
+  </si>
+  <si>
+    <t>fifty</t>
+  </si>
+  <si>
+    <t>who's</t>
+  </si>
+  <si>
+    <t>spend</t>
+  </si>
+  <si>
+    <t>doing</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>lucky</t>
+  </si>
+  <si>
+    <t>route</t>
+  </si>
+  <si>
+    <t>jumps</t>
+  </si>
+  <si>
+    <t>knife</t>
+  </si>
+  <si>
+    <t>grant</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>while</t>
+  </si>
+  <si>
+    <t>floor</t>
+  </si>
+  <si>
+    <t>found</t>
+  </si>
+  <si>
+    <t>dying</t>
+  </si>
+  <si>
+    <t>trade</t>
+  </si>
+  <si>
+    <t>quite</t>
+  </si>
+  <si>
+    <t>ahead</t>
+  </si>
+  <si>
+    <t>smart</t>
+  </si>
+  <si>
+    <t>wants</t>
+  </si>
+  <si>
+    <t>plane</t>
+  </si>
+  <si>
+    <t>faded</t>
+  </si>
+  <si>
+    <t>armor</t>
+  </si>
+  <si>
+    <t>bloom</t>
+  </si>
+  <si>
+    <t>annoy</t>
+  </si>
+  <si>
+    <t>bench</t>
+  </si>
+  <si>
+    <t>lines</t>
+  </si>
+  <si>
+    <t>havoc</t>
+  </si>
+  <si>
+    <t>limit</t>
+  </si>
+  <si>
+    <t>spots</t>
+  </si>
+  <si>
+    <t>front</t>
+  </si>
+  <si>
     <t>1700s</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>1v1</t>
-  </si>
-  <si>
-    <t>1v2</t>
+    <t>dummy</t>
+  </si>
+  <si>
+    <t>never</t>
+  </si>
+  <si>
+    <t>tight</t>
+  </si>
+  <si>
+    <t>until</t>
+  </si>
+  <si>
+    <t>twice</t>
+  </si>
+  <si>
+    <t>teams</t>
+  </si>
+  <si>
+    <t>brown</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>falls</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>ledge</t>
+  </si>
+  <si>
+    <t>tiger</t>
+  </si>
+  <si>
+    <t>fiery</t>
+  </si>
+  <si>
+    <t>taken</t>
+  </si>
+  <si>
+    <t>rapid</t>
+  </si>
+  <si>
+    <t>y'all</t>
+  </si>
+  <si>
+    <t>should</t>
+  </si>
+  <si>
+    <t>unable</t>
+  </si>
+  <si>
+    <t>within</t>
+  </si>
+  <si>
+    <t>smooth</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>wanted</t>
+  </si>
+  <si>
+    <t>retake</t>
+  </si>
+  <si>
+    <t>murder</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>longer</t>
+  </si>
+  <si>
+    <t>defuse</t>
+  </si>
+  <si>
+    <t>needed</t>
+  </si>
+  <si>
+    <t>minute</t>
+  </si>
+  <si>
+    <t>hunger</t>
+  </si>
+  <si>
+    <t>strike</t>
+  </si>
+  <si>
+    <t>things</t>
+  </si>
+  <si>
+    <t>impact</t>
+  </si>
+  <si>
+    <t>prefer</t>
+  </si>
+  <si>
+    <t>fairly</t>
+  </si>
+  <si>
+    <t>spawns</t>
+  </si>
+  <si>
+    <t>caught</t>
+  </si>
+  <si>
+    <t>nearly</t>
+  </si>
+  <si>
+    <t>before</t>
+  </si>
+  <si>
+    <t>firing</t>
+  </si>
+  <si>
+    <t>moving</t>
+  </si>
+  <si>
+    <t>center</t>
+  </si>
+  <si>
+    <t>jiggle</t>
+  </si>
+  <si>
+    <t>speedy</t>
+  </si>
+  <si>
+    <t>operas</t>
+  </si>
+  <si>
+    <t>tricks</t>
+  </si>
+  <si>
+    <t>anywho</t>
+  </si>
+  <si>
+    <t>allows</t>
+  </si>
+  <si>
+    <t>topcon</t>
+  </si>
+  <si>
+    <t>rotate</t>
+  </si>
+  <si>
+    <t>anyone</t>
+  </si>
+  <si>
+    <t>losing</t>
+  </si>
+  <si>
+    <t>cannot</t>
+  </si>
+  <si>
+    <t>corner</t>
+  </si>
+  <si>
+    <t>ladder</t>
+  </si>
+  <si>
+    <t>pop-up</t>
+  </si>
+  <si>
+    <t>triple</t>
+  </si>
+  <si>
+    <t>looked</t>
+  </si>
+  <si>
+    <t>aren't</t>
+  </si>
+  <si>
+    <t>choice</t>
+  </si>
+  <si>
+    <t>choose</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>ramp's</t>
+  </si>
+  <si>
+    <t>hiding</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>easily</t>
+  </si>
+  <si>
+    <t>couple</t>
+  </si>
+  <si>
+    <t>hardly</t>
+  </si>
+  <si>
+    <t>sounds</t>
+  </si>
+  <si>
+    <t>pretty</t>
+  </si>
+  <si>
+    <t>breaks</t>
+  </si>
+  <si>
+    <t>bottom</t>
+  </si>
+  <si>
+    <t>around</t>
+  </si>
+  <si>
+    <t>hidden</t>
+  </si>
+  <si>
+    <t>dragon</t>
+  </si>
+  <si>
+    <t>assume</t>
+  </si>
+  <si>
+    <t>messed</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>today's</t>
+  </si>
+  <si>
+    <t>improve</t>
+  </si>
+  <si>
+    <t>chances</t>
+  </si>
+  <si>
+    <t>lineups</t>
+  </si>
+  <si>
+    <t>against</t>
+  </si>
+  <si>
+    <t>visions</t>
+  </si>
+  <si>
+    <t>already</t>
+  </si>
+  <si>
+    <t>mention</t>
+  </si>
+  <si>
+    <t>execute</t>
+  </si>
+  <si>
+    <t>hundred</t>
+  </si>
+  <si>
+    <t>playing</t>
+  </si>
+  <si>
+    <t>squeezy</t>
+  </si>
+  <si>
+    <t>dollars</t>
+  </si>
+  <si>
+    <t>doesn't</t>
+  </si>
+  <si>
+    <t>smoking</t>
+  </si>
+  <si>
+    <t>picking</t>
+  </si>
+  <si>
+    <t>changed</t>
+  </si>
+  <si>
+    <t>economy</t>
+  </si>
+  <si>
+    <t>dislike</t>
+  </si>
+  <si>
+    <t>sitting</t>
+  </si>
+  <si>
+    <t>reliant</t>
+  </si>
+  <si>
+    <t>heavily</t>
+  </si>
+  <si>
+    <t>a-spawn</t>
+  </si>
+  <si>
+    <t>haircut</t>
+  </si>
+  <si>
+    <t>jugular</t>
+  </si>
+  <si>
+    <t>archway</t>
+  </si>
+  <si>
+    <t>meaning</t>
+  </si>
+  <si>
+    <t>running</t>
+  </si>
+  <si>
+    <t>forward</t>
+  </si>
+  <si>
+    <t>t-sided</t>
+  </si>
+  <si>
+    <t>whereas</t>
+  </si>
+  <si>
+    <t>similar</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>peeking</t>
+  </si>
+  <si>
+    <t>moultov</t>
+  </si>
+  <si>
+    <t>pillars</t>
+  </si>
+  <si>
+    <t>through</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>becomes</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>between</t>
+  </si>
+  <si>
+    <t>forcing</t>
+  </si>
+  <si>
+    <t>jumping</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>talking</t>
+  </si>
+  <si>
+    <t>fridges</t>
+  </si>
+  <si>
+    <t>certain</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>blocking</t>
+  </si>
+  <si>
+    <t>furthest</t>
+  </si>
+  <si>
+    <t>explodes</t>
+  </si>
+  <si>
+    <t>obscured</t>
+  </si>
+  <si>
+    <t>facebook</t>
+  </si>
+  <si>
+    <t>checkout</t>
+  </si>
+  <si>
+    <t>purchase</t>
+  </si>
+  <si>
+    <t>anything</t>
+  </si>
+  <si>
+    <t>retaking</t>
+  </si>
+  <si>
+    <t>presence</t>
+  </si>
+  <si>
+    <t>entrance</t>
+  </si>
+  <si>
+    <t>practice</t>
+  </si>
+  <si>
+    <t>maneuver</t>
+  </si>
+  <si>
+    <t>guarding</t>
+  </si>
+  <si>
+    <t>anywhere</t>
+  </si>
+  <si>
+    <t>eighteen</t>
+  </si>
+  <si>
+    <t>involves</t>
+  </si>
+  <si>
+    <t>strategy</t>
+  </si>
+  <si>
+    <t>catching</t>
+  </si>
+  <si>
+    <t>gonzales</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>actually</t>
+  </si>
+  <si>
+    <t>pre-fire</t>
+  </si>
+  <si>
+    <t>thinking</t>
+  </si>
+  <si>
+    <t>coaching</t>
+  </si>
+  <si>
+    <t>suppress</t>
+  </si>
+  <si>
+    <t>blinding</t>
+  </si>
+  <si>
+    <t>defaults</t>
+  </si>
+  <si>
+    <t>remember</t>
+  </si>
+  <si>
+    <t>crouched</t>
+  </si>
+  <si>
+    <t>checking</t>
+  </si>
+  <si>
+    <t>yourself</t>
+  </si>
+  <si>
+    <t>possibly</t>
+  </si>
+  <si>
+    <t>accuracy</t>
+  </si>
+  <si>
+    <t>surprise</t>
+  </si>
+  <si>
+    <t>wiggling</t>
+  </si>
+  <si>
+    <t>learning</t>
+  </si>
+  <si>
+    <t>molotov's</t>
+  </si>
+  <si>
+    <t>flashbang</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>situation</t>
+  </si>
+  <si>
+    <t>effective</t>
+  </si>
+  <si>
+    <t>protected</t>
+  </si>
+  <si>
+    <t>different</t>
+  </si>
+  <si>
+    <t>something</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>correctly</t>
+  </si>
+  <si>
+    <t>standstill</t>
+  </si>
+  <si>
+    <t>aggressive</t>
+  </si>
+  <si>
+    <t>likelihood</t>
+  </si>
+  <si>
+    <t>percentage</t>
+  </si>
+  <si>
+    <t>assistance</t>
+  </si>
+  <si>
+    <t>precarious</t>
+  </si>
+  <si>
+    <t>distracted</t>
   </si>
   <si>
     <t>[Laughter]</t>
   </si>
   <si>
-    <t>a-spawn</t>
+    <t>aggression</t>
+  </si>
+  <si>
+    <t>underneath</t>
+  </si>
+  <si>
+    <t>constantly</t>
+  </si>
+  <si>
+    <t>perfecting</t>
+  </si>
+  <si>
+    <t>everyone's</t>
+  </si>
+  <si>
+    <t>kryptonite</t>
   </si>
   <si>
     <t>accompanied</t>
   </si>
   <si>
-    <t>accuracy</t>
-  </si>
-  <si>
-    <t>actually</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>against</t>
-  </si>
-  <si>
-    <t>aggression</t>
-  </si>
-  <si>
-    <t>aggressive</t>
-  </si>
-  <si>
-    <t>ahead</t>
-  </si>
-  <si>
-    <t>allows</t>
-  </si>
-  <si>
-    <t>already</t>
-  </si>
-  <si>
-    <t>annoy</t>
-  </si>
-  <si>
-    <t>anyone</t>
-  </si>
-  <si>
-    <t>anything</t>
-  </si>
-  <si>
-    <t>anywhere</t>
-  </si>
-  <si>
-    <t>anywho</t>
+    <t>distracting</t>
+  </si>
+  <si>
+    <t>furthermore</t>
+  </si>
+  <si>
+    <t>unstoppable</t>
+  </si>
+  <si>
+    <t>successfully</t>
   </si>
   <si>
     <t>approximately</t>
-  </si>
-  <si>
-    <t>archway</t>
-  </si>
-  <si>
-    <t>aren't</t>
-  </si>
-  <si>
-    <t>armor</t>
-  </si>
-  <si>
-    <t>around</t>
-  </si>
-  <si>
-    <t>ask</t>
-  </si>
-  <si>
-    <t>assistance</t>
-  </si>
-  <si>
-    <t>assume</t>
-  </si>
-  <si>
-    <t>away</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>beat</t>
-  </si>
-  <si>
-    <t>becomes</t>
-  </si>
-  <si>
-    <t>before</t>
-  </si>
-  <si>
-    <t>bench</t>
-  </si>
-  <si>
-    <t>between</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>blinding</t>
-  </si>
-  <si>
-    <t>blocking</t>
-  </si>
-  <si>
-    <t>bloom</t>
-  </si>
-  <si>
-    <t>bottom</t>
-  </si>
-  <si>
-    <t>brah</t>
-  </si>
-  <si>
-    <t>breaks</t>
-  </si>
-  <si>
-    <t>brown</t>
-  </si>
-  <si>
-    <t>can't</t>
-  </si>
-  <si>
-    <t>cannot</t>
-  </si>
-  <si>
-    <t>catching</t>
-  </si>
-  <si>
-    <t>caught</t>
-  </si>
-  <si>
-    <t>center</t>
-  </si>
-  <si>
-    <t>certain</t>
-  </si>
-  <si>
-    <t>chances</t>
-  </si>
-  <si>
-    <t>changed</t>
-  </si>
-  <si>
-    <t>checking</t>
-  </si>
-  <si>
-    <t>checkout</t>
-  </si>
-  <si>
-    <t>choice</t>
-  </si>
-  <si>
-    <t>choose</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>click</t>
-  </si>
-  <si>
-    <t>coaching</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>cody</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>constantly</t>
-  </si>
-  <si>
-    <t>corner</t>
-  </si>
-  <si>
-    <t>correctly</t>
-  </si>
-  <si>
-    <t>cost</t>
-  </si>
-  <si>
-    <t>couple</t>
-  </si>
-  <si>
-    <t>create</t>
-  </si>
-  <si>
-    <t>crouched</t>
-  </si>
-  <si>
-    <t>cs</t>
-  </si>
-  <si>
-    <t>ct's</t>
-  </si>
-  <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>defaults</t>
-  </si>
-  <si>
-    <t>defuse</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>different</t>
-  </si>
-  <si>
-    <t>dislike</t>
-  </si>
-  <si>
-    <t>distracted</t>
-  </si>
-  <si>
-    <t>distracting</t>
-  </si>
-  <si>
-    <t>doesn't</t>
-  </si>
-  <si>
-    <t>doing</t>
-  </si>
-  <si>
-    <t>dollars</t>
-  </si>
-  <si>
-    <t>door</t>
-  </si>
-  <si>
-    <t>down</t>
-  </si>
-  <si>
-    <t>dragon</t>
-  </si>
-  <si>
-    <t>dummy</t>
-  </si>
-  <si>
-    <t>dying</t>
-  </si>
-  <si>
-    <t>easily</t>
-  </si>
-  <si>
-    <t>economy</t>
-  </si>
-  <si>
-    <t>effective</t>
-  </si>
-  <si>
-    <t>eighteen</t>
-  </si>
-  <si>
-    <t>entrance</t>
-  </si>
-  <si>
-    <t>everyone's</t>
-  </si>
-  <si>
-    <t>execute</t>
-  </si>
-  <si>
-    <t>explodes</t>
-  </si>
-  <si>
-    <t>eyes</t>
-  </si>
-  <si>
-    <t>facebook</t>
-  </si>
-  <si>
-    <t>faded</t>
-  </si>
-  <si>
-    <t>fairly</t>
-  </si>
-  <si>
-    <t>falls</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>fiery</t>
-  </si>
-  <si>
-    <t>fifty</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>firing</t>
-  </si>
-  <si>
-    <t>five</t>
-  </si>
-  <si>
-    <t>flashbang</t>
-  </si>
-  <si>
-    <t>flat</t>
-  </si>
-  <si>
-    <t>flip</t>
-  </si>
-  <si>
-    <t>floor</t>
-  </si>
-  <si>
-    <t>forcing</t>
-  </si>
-  <si>
-    <t>forward</t>
-  </si>
-  <si>
-    <t>found</t>
-  </si>
-  <si>
-    <t>fridges</t>
-  </si>
-  <si>
-    <t>front</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>furthermore</t>
-  </si>
-  <si>
-    <t>furthest</t>
-  </si>
-  <si>
-    <t>gap</t>
-  </si>
-  <si>
-    <t>gets</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>gone</t>
-  </si>
-  <si>
-    <t>gonzales</t>
-  </si>
-  <si>
-    <t>grads</t>
-  </si>
-  <si>
-    <t>grant</t>
-  </si>
-  <si>
-    <t>guarding</t>
-  </si>
-  <si>
-    <t>gwop</t>
-  </si>
-  <si>
-    <t>haircut</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>hardly</t>
-  </si>
-  <si>
-    <t>havoc</t>
-  </si>
-  <si>
-    <t>heard</t>
-  </si>
-  <si>
-    <t>heavily</t>
-  </si>
-  <si>
-    <t>held</t>
-  </si>
-  <si>
-    <t>hidden</t>
-  </si>
-  <si>
-    <t>hiding</t>
-  </si>
-  <si>
-    <t>hit</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>hundred</t>
-  </si>
-  <si>
-    <t>hunger</t>
-  </si>
-  <si>
-    <t>idea</t>
-  </si>
-  <si>
-    <t>impact</t>
-  </si>
-  <si>
-    <t>improve</t>
-  </si>
-  <si>
-    <t>involves</t>
-  </si>
-  <si>
-    <t>jiggle</t>
-  </si>
-  <si>
-    <t>jugular</t>
-  </si>
-  <si>
-    <t>jumping</t>
-  </si>
-  <si>
-    <t>jumps</t>
-  </si>
-  <si>
-    <t>keep</t>
-  </si>
-  <si>
-    <t>knife</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>kryptonite</t>
-  </si>
-  <si>
-    <t>ladder</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>learning</t>
-  </si>
-  <si>
-    <t>ledge</t>
-  </si>
-  <si>
-    <t>left</t>
-  </si>
-  <si>
-    <t>lemon</t>
-  </si>
-  <si>
-    <t>let's</t>
-  </si>
-  <si>
-    <t>likelihood</t>
-  </si>
-  <si>
-    <t>limit</t>
-  </si>
-  <si>
-    <t>lines</t>
-  </si>
-  <si>
-    <t>lineups</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>longer</t>
-  </si>
-  <si>
-    <t>looked</t>
-  </si>
-  <si>
-    <t>losing</t>
-  </si>
-  <si>
-    <t>lucky</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>major</t>
-  </si>
-  <si>
-    <t>maneuver</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>maps</t>
-  </si>
-  <si>
-    <t>meaning</t>
-  </si>
-  <si>
-    <t>mention</t>
-  </si>
-  <si>
-    <t>messed</t>
-  </si>
-  <si>
-    <t>mind</t>
-  </si>
-  <si>
-    <t>minute</t>
-  </si>
-  <si>
-    <t>molotov's</t>
-  </si>
-  <si>
-    <t>mom</t>
-  </si>
-  <si>
-    <t>moultov</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>moving</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>murder</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>nearly</t>
-  </si>
-  <si>
-    <t>needed</t>
-  </si>
-  <si>
-    <t>never</t>
-  </si>
-  <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>obscured</t>
-  </si>
-  <si>
-    <t>odds</t>
-  </si>
-  <si>
-    <t>ooh</t>
-  </si>
-  <si>
-    <t>operas</t>
-  </si>
-  <si>
-    <t>peasy</t>
-  </si>
-  <si>
-    <t>peeking</t>
-  </si>
-  <si>
-    <t>percentage</t>
-  </si>
-  <si>
-    <t>perfecting</t>
-  </si>
-  <si>
-    <t>pg</t>
-  </si>
-  <si>
-    <t>picking</t>
-  </si>
-  <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>pillars</t>
-  </si>
-  <si>
-    <t>plane</t>
-  </si>
-  <si>
-    <t>playing</t>
-  </si>
-  <si>
-    <t>pop-up</t>
-  </si>
-  <si>
-    <t>possibly</t>
-  </si>
-  <si>
-    <t>practice</t>
-  </si>
-  <si>
-    <t>pre-fire</t>
-  </si>
-  <si>
-    <t>precarious</t>
-  </si>
-  <si>
-    <t>prefer</t>
-  </si>
-  <si>
-    <t>presence</t>
-  </si>
-  <si>
-    <t>pretty</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>process</t>
-  </si>
-  <si>
-    <t>protected</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>pugs</t>
-  </si>
-  <si>
-    <t>purchase</t>
-  </si>
-  <si>
-    <t>puts</t>
-  </si>
-  <si>
-    <t>quite</t>
-  </si>
-  <si>
-    <t>ramp's</t>
-  </si>
-  <si>
-    <t>rapid</t>
-  </si>
-  <si>
-    <t>reliant</t>
-  </si>
-  <si>
-    <t>remember</t>
-  </si>
-  <si>
-    <t>result</t>
-  </si>
-  <si>
-    <t>retake</t>
-  </si>
-  <si>
-    <t>retaking</t>
-  </si>
-  <si>
-    <t>room</t>
-  </si>
-  <si>
-    <t>rotate</t>
-  </si>
-  <si>
-    <t>route</t>
-  </si>
-  <si>
-    <t>running</t>
-  </si>
-  <si>
-    <t>rush</t>
-  </si>
-  <si>
-    <t>said</t>
-  </si>
-  <si>
-    <t>sale</t>
-  </si>
-  <si>
-    <t>same</t>
-  </si>
-  <si>
-    <t>sat</t>
-  </si>
-  <si>
-    <t>should</t>
-  </si>
-  <si>
-    <t>similar</t>
-  </si>
-  <si>
-    <t>sir</t>
-  </si>
-  <si>
-    <t>sitting</t>
-  </si>
-  <si>
-    <t>situation</t>
-  </si>
-  <si>
-    <t>slash</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>smart</t>
-  </si>
-  <si>
-    <t>smoking</t>
-  </si>
-  <si>
-    <t>smooth</t>
-  </si>
-  <si>
-    <t>something</t>
-  </si>
-  <si>
-    <t>song</t>
-  </si>
-  <si>
-    <t>sounds</t>
-  </si>
-  <si>
-    <t>spawns</t>
-  </si>
-  <si>
-    <t>speedy</t>
-  </si>
-  <si>
-    <t>spend</t>
-  </si>
-  <si>
-    <t>spots</t>
-  </si>
-  <si>
-    <t>squeezy</t>
-  </si>
-  <si>
-    <t>standstill</t>
-  </si>
-  <si>
-    <t>strategy</t>
-  </si>
-  <si>
-    <t>strike</t>
-  </si>
-  <si>
-    <t>successfully</t>
-  </si>
-  <si>
-    <t>suppress</t>
-  </si>
-  <si>
-    <t>surprise</t>
-  </si>
-  <si>
-    <t>t-sided</t>
-  </si>
-  <si>
-    <t>taken</t>
-  </si>
-  <si>
-    <t>takes</t>
-  </si>
-  <si>
-    <t>talking</t>
-  </si>
-  <si>
-    <t>target</t>
-  </si>
-  <si>
-    <t>teams</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>things</t>
-  </si>
-  <si>
-    <t>thinking</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>through</t>
-  </si>
-  <si>
-    <t>tiger</t>
-  </si>
-  <si>
-    <t>tight</t>
-  </si>
-  <si>
-    <t>today's</t>
-  </si>
-  <si>
-    <t>topcon</t>
-  </si>
-  <si>
-    <t>trade</t>
-  </si>
-  <si>
-    <t>tricks</t>
-  </si>
-  <si>
-    <t>triple</t>
-  </si>
-  <si>
-    <t>twice</t>
-  </si>
-  <si>
-    <t>unable</t>
-  </si>
-  <si>
-    <t>underneath</t>
-  </si>
-  <si>
-    <t>unstoppable</t>
-  </si>
-  <si>
-    <t>until</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>visions</t>
-  </si>
-  <si>
-    <t>wanted</t>
-  </si>
-  <si>
-    <t>wants</t>
-  </si>
-  <si>
-    <t>whereas</t>
-  </si>
-  <si>
-    <t>while</t>
-  </si>
-  <si>
-    <t>whip</t>
-  </si>
-  <si>
-    <t>who's</t>
-  </si>
-  <si>
-    <t>wiggling</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>within</t>
-  </si>
-  <si>
-    <t>y'all</t>
-  </si>
-  <si>
-    <t>yourself</t>
   </si>
 </sst>
 </file>
